--- a/data/pca/factorExposure/factorExposure_2010-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-20.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01622399957939614</v>
+        <v>-0.01658878553470587</v>
       </c>
       <c r="C2">
-        <v>-0.001071869317971908</v>
+        <v>-0.0007960447593668722</v>
       </c>
       <c r="D2">
-        <v>0.009391624912112546</v>
+        <v>0.007265067785386267</v>
       </c>
       <c r="E2">
-        <v>-0.02858060496410834</v>
+        <v>0.002612198741100626</v>
       </c>
       <c r="F2">
-        <v>0.02113326125316278</v>
+        <v>0.01145235712859453</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1206480108606908</v>
+        <v>-0.09522786323513854</v>
       </c>
       <c r="C4">
-        <v>0.09072538219996584</v>
+        <v>-0.01820117947984928</v>
       </c>
       <c r="D4">
-        <v>-0.00207243915658048</v>
+        <v>0.07711576130431981</v>
       </c>
       <c r="E4">
-        <v>0.0306525154173955</v>
+        <v>-0.02766223119719746</v>
       </c>
       <c r="F4">
-        <v>0.156736533933421</v>
+        <v>-0.04172031641692988</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.125302169096536</v>
+        <v>-0.1503714542537578</v>
       </c>
       <c r="C6">
-        <v>0.06032855165445845</v>
+        <v>-0.0243214719208151</v>
       </c>
       <c r="D6">
-        <v>-0.01211576148408188</v>
+        <v>-0.01764967216753836</v>
       </c>
       <c r="E6">
-        <v>0.02584486854801719</v>
+        <v>-0.01142562149544704</v>
       </c>
       <c r="F6">
-        <v>0.03981993564370997</v>
+        <v>-0.03935129102872284</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07054209414780654</v>
+        <v>-0.06341238234846883</v>
       </c>
       <c r="C7">
-        <v>0.08763271442448377</v>
+        <v>-0.0008557022048001022</v>
       </c>
       <c r="D7">
-        <v>0.004663463551476281</v>
+        <v>0.04990047458888781</v>
       </c>
       <c r="E7">
-        <v>0.01000373663525689</v>
+        <v>-0.01372032447344581</v>
       </c>
       <c r="F7">
-        <v>0.01740609019157072</v>
+        <v>-0.05735026036011581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.03763084135368166</v>
+        <v>-0.05995350283494523</v>
       </c>
       <c r="C8">
-        <v>0.009761040265582766</v>
+        <v>0.01279500092956525</v>
       </c>
       <c r="D8">
-        <v>0.01189267663842197</v>
+        <v>0.02802966486494812</v>
       </c>
       <c r="E8">
-        <v>-0.01862680395371018</v>
+        <v>-0.01032389664822108</v>
       </c>
       <c r="F8">
-        <v>0.1218403262746498</v>
+        <v>0.02119457646615365</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08876440752432817</v>
+        <v>-0.07351273887582335</v>
       </c>
       <c r="C9">
-        <v>0.06423576507016483</v>
+        <v>-0.01513982443355023</v>
       </c>
       <c r="D9">
-        <v>-0.01406557699124602</v>
+        <v>0.07387000872128413</v>
       </c>
       <c r="E9">
-        <v>0.03442095894449061</v>
+        <v>-0.02081942758367977</v>
       </c>
       <c r="F9">
-        <v>0.1309565247459492</v>
+        <v>-0.06222638509980174</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1269388068890243</v>
+        <v>-0.09129982613203905</v>
       </c>
       <c r="C10">
-        <v>-0.1839415717113498</v>
+        <v>-0.01274916782498008</v>
       </c>
       <c r="D10">
-        <v>0.01974401462372337</v>
+        <v>-0.1730533824460463</v>
       </c>
       <c r="E10">
-        <v>0.002388804227007033</v>
+        <v>0.03372081184442773</v>
       </c>
       <c r="F10">
-        <v>-0.05927601339011172</v>
+        <v>0.05115908541797883</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06647107230597875</v>
+        <v>-0.08878525566491742</v>
       </c>
       <c r="C11">
-        <v>0.05697181765419489</v>
+        <v>-0.01426722901869996</v>
       </c>
       <c r="D11">
-        <v>-0.04201733921910388</v>
+        <v>0.1040719080295286</v>
       </c>
       <c r="E11">
-        <v>0.03801217306577031</v>
+        <v>-0.0400416459640181</v>
       </c>
       <c r="F11">
-        <v>0.09770299035611879</v>
+        <v>-0.0287778480905016</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0741084295502903</v>
+        <v>-0.09450593123953488</v>
       </c>
       <c r="C12">
-        <v>0.06411509712187725</v>
+        <v>-0.01202048090428433</v>
       </c>
       <c r="D12">
-        <v>-0.05296630237705192</v>
+        <v>0.1076635254973257</v>
       </c>
       <c r="E12">
-        <v>0.07821375333663613</v>
+        <v>-0.03820303955547179</v>
       </c>
       <c r="F12">
-        <v>0.10832023319958</v>
+        <v>-0.03194073385083566</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04162062610254563</v>
+        <v>-0.04393555597050273</v>
       </c>
       <c r="C13">
-        <v>0.04176682964430135</v>
+        <v>-0.004560305933804306</v>
       </c>
       <c r="D13">
-        <v>0.02699974998986034</v>
+        <v>0.03436975187282898</v>
       </c>
       <c r="E13">
-        <v>0.03170609847879773</v>
+        <v>0.01419939063296002</v>
       </c>
       <c r="F13">
-        <v>0.06699110923195227</v>
+        <v>-0.02212313402466109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04922912158098275</v>
+        <v>-0.02243802020812658</v>
       </c>
       <c r="C14">
-        <v>0.03436268871693902</v>
+        <v>-0.01517438347460144</v>
       </c>
       <c r="D14">
-        <v>-0.01357365257641198</v>
+        <v>0.02735655198828309</v>
       </c>
       <c r="E14">
-        <v>0.02044292499506156</v>
+        <v>-0.01545822615092601</v>
       </c>
       <c r="F14">
-        <v>0.05965442589888911</v>
+        <v>-0.02679461925468397</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02751719319189124</v>
+        <v>-0.03285480985252744</v>
       </c>
       <c r="C15">
-        <v>0.01707999387381771</v>
+        <v>-0.006338836446765524</v>
       </c>
       <c r="D15">
-        <v>0.06887894055458366</v>
+        <v>0.03655640988470248</v>
       </c>
       <c r="E15">
-        <v>-0.02732208848412165</v>
+        <v>-0.006985458529102975</v>
       </c>
       <c r="F15">
-        <v>0.0232163476636801</v>
+        <v>-0.03513748990254439</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07861035789650175</v>
+        <v>-0.07647099393125119</v>
       </c>
       <c r="C16">
-        <v>0.07164713405085014</v>
+        <v>-0.006076676357762325</v>
       </c>
       <c r="D16">
-        <v>-0.03821171125447032</v>
+        <v>0.1066556019622065</v>
       </c>
       <c r="E16">
-        <v>0.06423422848436251</v>
+        <v>-0.05600514508456737</v>
       </c>
       <c r="F16">
-        <v>0.0908169268700855</v>
+        <v>-0.03701943201231476</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01591430229963845</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004237518049419959</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02511342327964403</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01097637948295212</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03181996969868004</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04316348515914697</v>
+        <v>-0.06189853782627934</v>
       </c>
       <c r="C20">
-        <v>0.02195324884610573</v>
+        <v>-0.003559503861260276</v>
       </c>
       <c r="D20">
-        <v>0.03054685773828988</v>
+        <v>0.06340191438507201</v>
       </c>
       <c r="E20">
-        <v>0.03260655378614297</v>
+        <v>-0.04936514472736697</v>
       </c>
       <c r="F20">
-        <v>0.05555764423184949</v>
+        <v>-0.03398231819451055</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03200638562121642</v>
+        <v>-0.03786832553453518</v>
       </c>
       <c r="C21">
-        <v>0.02548318376465981</v>
+        <v>-0.008263727697214234</v>
       </c>
       <c r="D21">
-        <v>-0.01468528728215222</v>
+        <v>0.03494783017988482</v>
       </c>
       <c r="E21">
-        <v>0.005242370515193684</v>
+        <v>0.01273267077866163</v>
       </c>
       <c r="F21">
-        <v>0.06547142194879585</v>
+        <v>0.01530604573268685</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05304284286218267</v>
+        <v>-0.04299262355895041</v>
       </c>
       <c r="C22">
-        <v>0.02442073266324372</v>
+        <v>-0.0007660104939123898</v>
       </c>
       <c r="D22">
-        <v>0.6507960461316469</v>
+        <v>-0.001230300231664096</v>
       </c>
       <c r="E22">
-        <v>0.1142385917938924</v>
+        <v>-0.03506075182904376</v>
       </c>
       <c r="F22">
-        <v>-0.05547961558180076</v>
+        <v>0.0260494924146446</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05360784687436303</v>
+        <v>-0.0430300535340668</v>
       </c>
       <c r="C23">
-        <v>0.02558670839877255</v>
+        <v>-0.0007890398766800341</v>
       </c>
       <c r="D23">
-        <v>0.652941223231577</v>
+        <v>-0.001051741488047803</v>
       </c>
       <c r="E23">
-        <v>0.1162950471142734</v>
+        <v>-0.03542557878845693</v>
       </c>
       <c r="F23">
-        <v>-0.05041838181908741</v>
+        <v>0.02547090418798827</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07738463319193606</v>
+        <v>-0.08217565810595326</v>
       </c>
       <c r="C24">
-        <v>0.06863085405469312</v>
+        <v>-0.005951068451856869</v>
       </c>
       <c r="D24">
-        <v>-0.03156788720086736</v>
+        <v>0.1090537781689497</v>
       </c>
       <c r="E24">
-        <v>0.06003663364135229</v>
+        <v>-0.0436637984797742</v>
       </c>
       <c r="F24">
-        <v>0.09290975386860333</v>
+        <v>-0.02892563299702207</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07703559961837561</v>
+        <v>-0.08686612279729942</v>
       </c>
       <c r="C25">
-        <v>0.05183384288309754</v>
+        <v>-0.00828931011996859</v>
       </c>
       <c r="D25">
-        <v>-0.05112636792404423</v>
+        <v>0.09418126025213493</v>
       </c>
       <c r="E25">
-        <v>0.06401107548663668</v>
+        <v>-0.0255106640963785</v>
       </c>
       <c r="F25">
-        <v>0.09777792102648959</v>
+        <v>-0.03886956977745546</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04192678665045244</v>
+        <v>-0.05675961950411709</v>
       </c>
       <c r="C26">
-        <v>0.01916634470808197</v>
+        <v>-0.01562360376326653</v>
       </c>
       <c r="D26">
-        <v>0.01036259298448659</v>
+        <v>0.02755519262790117</v>
       </c>
       <c r="E26">
-        <v>0.08406057957179865</v>
+        <v>-0.02362406866994398</v>
       </c>
       <c r="F26">
-        <v>0.05725819057781918</v>
+        <v>-0.00542942471453721</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1535244159672662</v>
+        <v>-0.1369203760271351</v>
       </c>
       <c r="C28">
-        <v>-0.2754050968404046</v>
+        <v>-0.01005328788106444</v>
       </c>
       <c r="D28">
-        <v>-0.005742857555364569</v>
+        <v>-0.2780308750165968</v>
       </c>
       <c r="E28">
-        <v>0.01152272840617435</v>
+        <v>0.06724042756043859</v>
       </c>
       <c r="F28">
-        <v>0.01765469151198481</v>
+        <v>-0.04971390449861747</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04309891058689256</v>
+        <v>-0.0276487211347611</v>
       </c>
       <c r="C29">
-        <v>0.02916085359830412</v>
+        <v>-0.009439830368357032</v>
       </c>
       <c r="D29">
-        <v>-0.01429341990888267</v>
+        <v>0.02545976104546728</v>
       </c>
       <c r="E29">
-        <v>0.02119130552308931</v>
+        <v>-0.008049881620264992</v>
       </c>
       <c r="F29">
-        <v>0.05399881003402305</v>
+        <v>0.006084484855167304</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08727432072405579</v>
+        <v>-0.06688393364367211</v>
       </c>
       <c r="C30">
-        <v>0.05539517841623968</v>
+        <v>-0.00867669006559465</v>
       </c>
       <c r="D30">
-        <v>-0.01795447423819656</v>
+        <v>0.06991086050611596</v>
       </c>
       <c r="E30">
-        <v>0.2260997467020603</v>
+        <v>-0.0197130340753671</v>
       </c>
       <c r="F30">
-        <v>0.1911426285335056</v>
+        <v>-0.125462145278269</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02795045846721581</v>
+        <v>-0.04857978474478658</v>
       </c>
       <c r="C31">
-        <v>0.05413545873853041</v>
+        <v>-0.01526007662725914</v>
       </c>
       <c r="D31">
-        <v>0.003847893401454455</v>
+        <v>0.02939618345181219</v>
       </c>
       <c r="E31">
-        <v>0.0107037354167428</v>
+        <v>-0.0260403862170348</v>
       </c>
       <c r="F31">
-        <v>0.04035454929001739</v>
+        <v>0.002502305217926646</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05875841147257253</v>
+        <v>-0.04799743396409117</v>
       </c>
       <c r="C32">
-        <v>0.003040557702466976</v>
+        <v>-0.001178150445958718</v>
       </c>
       <c r="D32">
-        <v>-0.03500904367622026</v>
+        <v>0.02195921226247803</v>
       </c>
       <c r="E32">
-        <v>-0.04737365003441766</v>
+        <v>-0.02333876649966127</v>
       </c>
       <c r="F32">
-        <v>0.1057490289353517</v>
+        <v>-0.007815684402058131</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09189372102038115</v>
+        <v>-0.09246879834262735</v>
       </c>
       <c r="C33">
-        <v>0.06659650363720132</v>
+        <v>-0.01143264339624117</v>
       </c>
       <c r="D33">
-        <v>-0.02185665838227678</v>
+        <v>0.08444909089415262</v>
       </c>
       <c r="E33">
-        <v>0.04656665119626064</v>
+        <v>-0.04270396994439572</v>
       </c>
       <c r="F33">
-        <v>0.06495192981722321</v>
+        <v>-0.04391483330152483</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06820014074291923</v>
+        <v>-0.06933218991729387</v>
       </c>
       <c r="C34">
-        <v>0.05349210546624072</v>
+        <v>-0.01370133534135255</v>
       </c>
       <c r="D34">
-        <v>-0.04883814915376117</v>
+        <v>0.08871373788716677</v>
       </c>
       <c r="E34">
-        <v>0.044792731523556</v>
+        <v>-0.02687244643046121</v>
       </c>
       <c r="F34">
-        <v>0.07969250554252848</v>
+        <v>-0.05419729045618726</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02311020009934257</v>
+        <v>-0.02441778459703705</v>
       </c>
       <c r="C35">
-        <v>0.02613465007047213</v>
+        <v>-0.002452205294053695</v>
       </c>
       <c r="D35">
-        <v>-0.007289899080621395</v>
+        <v>0.009723825773188961</v>
       </c>
       <c r="E35">
-        <v>0.02298573123866451</v>
+        <v>-0.01201604928396842</v>
       </c>
       <c r="F35">
-        <v>0.01373580419801142</v>
+        <v>-0.01362754160147759</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02962012857197469</v>
+        <v>-0.02657033735642976</v>
       </c>
       <c r="C36">
-        <v>0.01955720187186268</v>
+        <v>-0.007246946660257349</v>
       </c>
       <c r="D36">
-        <v>0.01381469607192208</v>
+        <v>0.03854154007578096</v>
       </c>
       <c r="E36">
-        <v>0.04892872880061033</v>
+        <v>-0.01624673921257215</v>
       </c>
       <c r="F36">
-        <v>0.06760773491273266</v>
+        <v>-0.01434583430432803</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0267953881822158</v>
+        <v>-0.003213312667263894</v>
       </c>
       <c r="C38">
-        <v>0.05654753123015079</v>
+        <v>-0.0006153692233055111</v>
       </c>
       <c r="D38">
-        <v>0.01916091462375074</v>
+        <v>0.003824737028784916</v>
       </c>
       <c r="E38">
-        <v>0.02275719650456598</v>
+        <v>-0.004504110481174928</v>
       </c>
       <c r="F38">
-        <v>-0.1229539872230343</v>
+        <v>0.003973093117547272</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09279668359328988</v>
+        <v>-0.1126027454101721</v>
       </c>
       <c r="C39">
-        <v>0.0708629943473043</v>
+        <v>-0.02015796795967731</v>
       </c>
       <c r="D39">
-        <v>-0.115034865594854</v>
+        <v>0.1412686363083867</v>
       </c>
       <c r="E39">
-        <v>0.1627328680932387</v>
+        <v>-0.04837018293084826</v>
       </c>
       <c r="F39">
-        <v>0.08059542749507859</v>
+        <v>-0.04251678895750022</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02865056583521516</v>
+        <v>-0.03750585955065384</v>
       </c>
       <c r="C40">
-        <v>0.0627393364753409</v>
+        <v>-0.007944603297486568</v>
       </c>
       <c r="D40">
-        <v>0.02436847476891235</v>
+        <v>0.02397388002431078</v>
       </c>
       <c r="E40">
-        <v>-0.03693284094765389</v>
+        <v>-0.001899083304953774</v>
       </c>
       <c r="F40">
-        <v>0.1036893037588748</v>
+        <v>0.01432929095351101</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03171490284100983</v>
+        <v>-0.02673614842454279</v>
       </c>
       <c r="C41">
-        <v>0.02582229560101503</v>
+        <v>-0.006832008743883166</v>
       </c>
       <c r="D41">
-        <v>-0.02882645245011882</v>
+        <v>0.01055385594146904</v>
       </c>
       <c r="E41">
-        <v>0.01995196890871505</v>
+        <v>-0.01056711822481093</v>
       </c>
       <c r="F41">
-        <v>-0.008660284982189811</v>
+        <v>0.01306426052127855</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0485266578612767</v>
+        <v>-0.04349026878926801</v>
       </c>
       <c r="C43">
-        <v>0.05373285602636814</v>
+        <v>-0.007371463903530008</v>
       </c>
       <c r="D43">
-        <v>0.003890570733239791</v>
+        <v>0.02085933912082288</v>
       </c>
       <c r="E43">
-        <v>0.06181852593216561</v>
+        <v>-0.0253533188324103</v>
       </c>
       <c r="F43">
-        <v>0.004434666062187886</v>
+        <v>0.01131074910120315</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.0952748271756909</v>
+        <v>-0.0743027555961728</v>
       </c>
       <c r="C44">
-        <v>0.08279069480257903</v>
+        <v>-0.02456170155636267</v>
       </c>
       <c r="D44">
-        <v>0.05952938807528958</v>
+        <v>0.09206944447522571</v>
       </c>
       <c r="E44">
-        <v>0.02187479995038188</v>
+        <v>-0.06268310137375345</v>
       </c>
       <c r="F44">
-        <v>0.1593455014396469</v>
+        <v>-0.18615114927534</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.04329686184101003</v>
+        <v>-0.02465589089332925</v>
       </c>
       <c r="C46">
-        <v>0.04367002353331711</v>
+        <v>-0.004167431156265911</v>
       </c>
       <c r="D46">
-        <v>0.0456941539401721</v>
+        <v>0.009812880463537127</v>
       </c>
       <c r="E46">
-        <v>-0.007910051923536774</v>
+        <v>-0.0232235609112055</v>
       </c>
       <c r="F46">
-        <v>0.0390505395984756</v>
+        <v>0.003430162681161492</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0526314450935742</v>
+        <v>-0.0530876938075109</v>
       </c>
       <c r="C47">
-        <v>0.04605171405132564</v>
+        <v>-0.003379257698959636</v>
       </c>
       <c r="D47">
-        <v>0.001173536944375382</v>
+        <v>0.01479837424346177</v>
       </c>
       <c r="E47">
-        <v>0.03002392124696258</v>
+        <v>-0.02263566825094676</v>
       </c>
       <c r="F47">
-        <v>0.008852589801227316</v>
+        <v>0.04736981338994234</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0461185727843968</v>
+        <v>-0.04805067341558501</v>
       </c>
       <c r="C48">
-        <v>0.01348706185825962</v>
+        <v>-0.003414745291843342</v>
       </c>
       <c r="D48">
-        <v>-0.007913067480177057</v>
+        <v>0.04260365726782143</v>
       </c>
       <c r="E48">
-        <v>0.01512995092505626</v>
+        <v>0.008694714087370272</v>
       </c>
       <c r="F48">
-        <v>0.08422417799509098</v>
+        <v>-0.0204799042250035</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2362526915998545</v>
+        <v>-0.2084951440259424</v>
       </c>
       <c r="C49">
-        <v>0.06433527793544934</v>
+        <v>-0.01720757521184832</v>
       </c>
       <c r="D49">
-        <v>-0.03506777558866473</v>
+        <v>-0.006521886931046187</v>
       </c>
       <c r="E49">
-        <v>-0.1322066316952652</v>
+        <v>-0.04277046011206174</v>
       </c>
       <c r="F49">
-        <v>-0.2893910321256211</v>
+        <v>-0.03057778156624895</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03724218238207098</v>
+        <v>-0.04868777495874642</v>
       </c>
       <c r="C50">
-        <v>0.04640052600262173</v>
+        <v>-0.01155320015225484</v>
       </c>
       <c r="D50">
-        <v>-0.0139321664834768</v>
+        <v>0.02834920808615525</v>
       </c>
       <c r="E50">
-        <v>0.04870776217617443</v>
+        <v>-0.02819945063070659</v>
       </c>
       <c r="F50">
-        <v>0.04369588218018455</v>
+        <v>-0.005620133887495589</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03321383766429499</v>
+        <v>-0.003701623635618816</v>
       </c>
       <c r="C51">
-        <v>0.004618235416623913</v>
+        <v>-0.0008522800568602894</v>
       </c>
       <c r="D51">
-        <v>-0.0004781219050191749</v>
+        <v>-0.001469360950026361</v>
       </c>
       <c r="E51">
-        <v>-0.03444608533138697</v>
+        <v>-0.001776429830988634</v>
       </c>
       <c r="F51">
-        <v>-0.0498524277551052</v>
+        <v>-0.0039050552021984</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.01287595292852163</v>
+        <v>-0.1400727485079344</v>
       </c>
       <c r="C52">
-        <v>0.003998403068650989</v>
+        <v>-0.01242832922933127</v>
       </c>
       <c r="D52">
-        <v>-0.02415623097997645</v>
+        <v>0.05398272973178132</v>
       </c>
       <c r="E52">
-        <v>-0.005089657579889059</v>
+        <v>-0.01498457209316915</v>
       </c>
       <c r="F52">
-        <v>0.00796948664470243</v>
+        <v>-0.02856310029389528</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.145656749805006</v>
+        <v>-0.171820120200785</v>
       </c>
       <c r="C53">
-        <v>0.06071490686893476</v>
+        <v>-0.0151353268813812</v>
       </c>
       <c r="D53">
-        <v>0.006106698166187501</v>
+        <v>0.02149715010683054</v>
       </c>
       <c r="E53">
-        <v>0.01756037365326352</v>
+        <v>-0.03882290404389506</v>
       </c>
       <c r="F53">
-        <v>-0.1064804764801273</v>
+        <v>-0.05503118467746473</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05835135273662329</v>
+        <v>-0.02202442193924278</v>
       </c>
       <c r="C54">
-        <v>0.03188637028849016</v>
+        <v>-0.0130862563425293</v>
       </c>
       <c r="D54">
-        <v>0.008061910395067321</v>
+        <v>0.02785382073734783</v>
       </c>
       <c r="E54">
-        <v>0.02249418653400015</v>
+        <v>-0.01545227925645613</v>
       </c>
       <c r="F54">
-        <v>0.1504813710380931</v>
+        <v>-0.00233070112466165</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08152549988766696</v>
+        <v>-0.1138451224635064</v>
       </c>
       <c r="C55">
-        <v>0.04989439377190576</v>
+        <v>-0.01439476254200349</v>
       </c>
       <c r="D55">
-        <v>-0.03173325724121496</v>
+        <v>0.0192238926925367</v>
       </c>
       <c r="E55">
-        <v>0.01362898075348858</v>
+        <v>-0.02994898605201963</v>
       </c>
       <c r="F55">
-        <v>-0.0220030118441311</v>
+        <v>-0.04667312058245141</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1327577096908097</v>
+        <v>-0.1763971002357345</v>
       </c>
       <c r="C56">
-        <v>0.09035079482975301</v>
+        <v>-0.01241917045553088</v>
       </c>
       <c r="D56">
-        <v>-0.01539198507682698</v>
+        <v>0.02098025281586873</v>
       </c>
       <c r="E56">
-        <v>0.03070872478701115</v>
+        <v>-0.04285502445241467</v>
       </c>
       <c r="F56">
-        <v>-0.05452378476701134</v>
+        <v>-0.0239547167341226</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03168782188619729</v>
+        <v>-0.04693151420976337</v>
       </c>
       <c r="C58">
-        <v>0.03022859998130174</v>
+        <v>-0.004034035246150754</v>
       </c>
       <c r="D58">
-        <v>0.03720819671466216</v>
+        <v>0.05740085076518636</v>
       </c>
       <c r="E58">
-        <v>0.03781489316284353</v>
+        <v>-0.01329159012732996</v>
       </c>
       <c r="F58">
-        <v>0.02406752839484838</v>
+        <v>0.04251130807118954</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2147785613348995</v>
+        <v>-0.1713649935907546</v>
       </c>
       <c r="C59">
-        <v>-0.2422570082145829</v>
+        <v>-0.01199952112576129</v>
       </c>
       <c r="D59">
-        <v>-0.04184486019747074</v>
+        <v>-0.2346277337620266</v>
       </c>
       <c r="E59">
-        <v>-0.04418383894170067</v>
+        <v>0.04598438175361391</v>
       </c>
       <c r="F59">
-        <v>0.0008447833928269364</v>
+        <v>0.02952854958394574</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2347575378125741</v>
+        <v>-0.2395286981797595</v>
       </c>
       <c r="C60">
-        <v>0.1383372659362278</v>
+        <v>0.004502577274209717</v>
       </c>
       <c r="D60">
-        <v>-0.07354453060210603</v>
+        <v>0.05520254071139982</v>
       </c>
       <c r="E60">
-        <v>-0.06313375460614869</v>
+        <v>-0.01231415524000573</v>
       </c>
       <c r="F60">
-        <v>-0.126283246932852</v>
+        <v>0.05068118830319178</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09226575506693063</v>
+        <v>-0.08653941927276136</v>
       </c>
       <c r="C61">
-        <v>0.06262124929997152</v>
+        <v>-0.01535854425163683</v>
       </c>
       <c r="D61">
-        <v>-0.06988783181404427</v>
+        <v>0.1018906992692065</v>
       </c>
       <c r="E61">
-        <v>0.1001489414099734</v>
+        <v>-0.03369735861812383</v>
       </c>
       <c r="F61">
-        <v>0.1019138586112147</v>
+        <v>-0.02708684181382717</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1343812416336282</v>
+        <v>-0.1681705354128312</v>
       </c>
       <c r="C62">
-        <v>0.08158695357829636</v>
+        <v>-0.01637157967184768</v>
       </c>
       <c r="D62">
-        <v>-0.008886738004431715</v>
+        <v>0.02052605002425876</v>
       </c>
       <c r="E62">
-        <v>0.02890853200617143</v>
+        <v>-0.03861447570731344</v>
       </c>
       <c r="F62">
-        <v>-0.06060176668480084</v>
+        <v>-0.01167203082025793</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04373072973130806</v>
+        <v>-0.0430081761498466</v>
       </c>
       <c r="C63">
-        <v>0.01857330795412463</v>
+        <v>-0.004623874323600605</v>
       </c>
       <c r="D63">
-        <v>-0.009622591420395565</v>
+        <v>0.0444937805325459</v>
       </c>
       <c r="E63">
-        <v>0.05704860198843485</v>
+        <v>-0.01334549783498524</v>
       </c>
       <c r="F63">
-        <v>0.05036460061090313</v>
+        <v>-0.01409585585856885</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09847840077148944</v>
+        <v>-0.1120464969431998</v>
       </c>
       <c r="C64">
-        <v>0.05845823201734772</v>
+        <v>-0.01211117593525929</v>
       </c>
       <c r="D64">
-        <v>-0.005843380477776374</v>
+        <v>0.03911823288679717</v>
       </c>
       <c r="E64">
-        <v>0.05348135435058676</v>
+        <v>-0.01867130215168108</v>
       </c>
       <c r="F64">
-        <v>0.04043816939440347</v>
+        <v>-0.01638156709876265</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1180368062593741</v>
+        <v>-0.1418685518807137</v>
       </c>
       <c r="C65">
-        <v>0.03241998322876652</v>
+        <v>-0.03057130627596645</v>
       </c>
       <c r="D65">
-        <v>-0.0272380839169908</v>
+        <v>-0.04451810644984724</v>
       </c>
       <c r="E65">
-        <v>0.05470004286490493</v>
+        <v>-0.003063230017592995</v>
       </c>
       <c r="F65">
-        <v>0.05804650021115525</v>
+        <v>-0.04032563227946358</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1064343681804982</v>
+        <v>-0.1349702161066745</v>
       </c>
       <c r="C66">
-        <v>0.107711663635101</v>
+        <v>-0.01766168369722292</v>
       </c>
       <c r="D66">
-        <v>-0.1143111921847962</v>
+        <v>0.1290016731963649</v>
       </c>
       <c r="E66">
-        <v>0.1549467613306249</v>
+        <v>-0.05827215522311509</v>
       </c>
       <c r="F66">
-        <v>0.06409156662021719</v>
+        <v>-0.04533499006278058</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08480859262389553</v>
+        <v>-0.0659875629998254</v>
       </c>
       <c r="C67">
-        <v>0.07252794059196953</v>
+        <v>-0.004408112550561274</v>
       </c>
       <c r="D67">
-        <v>0.02209362072527152</v>
+        <v>0.05632585981153</v>
       </c>
       <c r="E67">
-        <v>0.07556962513682848</v>
+        <v>-0.01950007001857223</v>
       </c>
       <c r="F67">
-        <v>-0.1084732052287912</v>
+        <v>0.04425359493305888</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1309081825452967</v>
+        <v>-0.1109625322990723</v>
       </c>
       <c r="C68">
-        <v>-0.2716172499570071</v>
+        <v>-0.02087746951923592</v>
       </c>
       <c r="D68">
-        <v>-0.01883749256786817</v>
+        <v>-0.2752833605896835</v>
       </c>
       <c r="E68">
-        <v>0.03962870454259691</v>
+        <v>0.08492943785849376</v>
       </c>
       <c r="F68">
-        <v>0.02644492519652287</v>
+        <v>-0.05238661418991251</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04316640478215102</v>
+        <v>-0.04091431432951829</v>
       </c>
       <c r="C69">
-        <v>0.01966687456792522</v>
+        <v>-0.001176153885773055</v>
       </c>
       <c r="D69">
-        <v>0.01176490894741479</v>
+        <v>0.009294146738157111</v>
       </c>
       <c r="E69">
-        <v>0.04474622195218311</v>
+        <v>-0.02623778082958887</v>
       </c>
       <c r="F69">
-        <v>-0.0188027428000287</v>
+        <v>0.01671533186613879</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06194603684724374</v>
+        <v>-0.06576100446309212</v>
       </c>
       <c r="C70">
-        <v>0.0627587982844057</v>
+        <v>0.02688973188037373</v>
       </c>
       <c r="D70">
-        <v>-0.05815355510924652</v>
+        <v>0.003938661729279412</v>
       </c>
       <c r="E70">
-        <v>0.008183833305551013</v>
+        <v>0.04401834817397825</v>
       </c>
       <c r="F70">
-        <v>0.0369398158529324</v>
+        <v>0.3414772218438762</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1477976806013436</v>
+        <v>-0.1298773670227673</v>
       </c>
       <c r="C71">
-        <v>-0.2786308474376228</v>
+        <v>-0.02431780594672295</v>
       </c>
       <c r="D71">
-        <v>-0.01039238277274983</v>
+        <v>-0.2910918643583433</v>
       </c>
       <c r="E71">
-        <v>0.05339806286830356</v>
+        <v>0.09245681408334611</v>
       </c>
       <c r="F71">
-        <v>0.03505931998632328</v>
+        <v>-0.05474537968074169</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1257324848401654</v>
+        <v>-0.1383833354645578</v>
       </c>
       <c r="C72">
-        <v>0.03014521939472249</v>
+        <v>-0.02397519032324059</v>
       </c>
       <c r="D72">
-        <v>-0.01291101365057886</v>
+        <v>0.01167703281265806</v>
       </c>
       <c r="E72">
-        <v>0.07382021700439022</v>
+        <v>-0.04227771480258798</v>
       </c>
       <c r="F72">
-        <v>0.001292327244292718</v>
+        <v>-0.02559424539912408</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2164878879333876</v>
+        <v>-0.2107680973972728</v>
       </c>
       <c r="C73">
-        <v>0.1317475991248778</v>
+        <v>-0.01187188172472823</v>
       </c>
       <c r="D73">
-        <v>-0.1309708043120786</v>
+        <v>0.02625346390127915</v>
       </c>
       <c r="E73">
-        <v>-0.1515462297244129</v>
+        <v>-0.07270503393832857</v>
       </c>
       <c r="F73">
-        <v>-0.4416215335782424</v>
+        <v>-0.0194767297762102</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08400798980758964</v>
+        <v>-0.09373176398890179</v>
       </c>
       <c r="C74">
-        <v>0.08424745409294929</v>
+        <v>-0.01166103862236487</v>
       </c>
       <c r="D74">
-        <v>-0.006083277831729609</v>
+        <v>0.03012078055781591</v>
       </c>
       <c r="E74">
-        <v>0.05676168434267531</v>
+        <v>-0.05215055356517064</v>
       </c>
       <c r="F74">
-        <v>-0.07053316022361759</v>
+        <v>-0.03932905519459846</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08587352578119821</v>
+        <v>-0.129428655269879</v>
       </c>
       <c r="C75">
-        <v>0.06379585226119268</v>
+        <v>-0.02576938008301873</v>
       </c>
       <c r="D75">
-        <v>-0.006906207181824602</v>
+        <v>0.0410830557729362</v>
       </c>
       <c r="E75">
-        <v>0.01089264914488551</v>
+        <v>-0.05934447796829301</v>
       </c>
       <c r="F75">
-        <v>-0.01908052769514639</v>
+        <v>-0.004505147632352678</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.08181027894008762</v>
+        <v>-0.00951123443616678</v>
       </c>
       <c r="C76">
-        <v>0.08343555330405292</v>
+        <v>-0.002113755174574677</v>
       </c>
       <c r="D76">
-        <v>0.0001724961739245194</v>
+        <v>0.004566213870669572</v>
       </c>
       <c r="E76">
-        <v>-0.01013487640244241</v>
+        <v>-0.009864345679716779</v>
       </c>
       <c r="F76">
-        <v>-0.05906481909332851</v>
+        <v>-0.003342480458539226</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06736632518733084</v>
+        <v>-0.08127798480506666</v>
       </c>
       <c r="C77">
-        <v>0.01554763746130621</v>
+        <v>-0.01239581014690263</v>
       </c>
       <c r="D77">
-        <v>-0.0467588165668785</v>
+        <v>0.09701214231260781</v>
       </c>
       <c r="E77">
-        <v>0.06504300798511226</v>
+        <v>-0.03061113664460752</v>
       </c>
       <c r="F77">
-        <v>0.2856317090934122</v>
+        <v>-0.04330889558962224</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1911825837259737</v>
+        <v>-0.1108738617119701</v>
       </c>
       <c r="C78">
-        <v>0.1493555497224325</v>
+        <v>-0.04472327641019202</v>
       </c>
       <c r="D78">
-        <v>0.1747915435977714</v>
+        <v>0.1160487481806298</v>
       </c>
       <c r="E78">
-        <v>-0.5067443875473546</v>
+        <v>-0.09051167540227276</v>
       </c>
       <c r="F78">
-        <v>0.3679207907533261</v>
+        <v>-0.07489168638505041</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1296997793166781</v>
+        <v>-0.1621755711878678</v>
       </c>
       <c r="C79">
-        <v>0.07899293205714404</v>
+        <v>-0.01985364987707171</v>
       </c>
       <c r="D79">
-        <v>0.006381380817639846</v>
+        <v>0.02515950014378358</v>
       </c>
       <c r="E79">
-        <v>0.03225886592442753</v>
+        <v>-0.04907458402189157</v>
       </c>
       <c r="F79">
-        <v>-0.030293577643346</v>
+        <v>-0.003587849431189573</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07076109043883877</v>
+        <v>-0.08050995761997697</v>
       </c>
       <c r="C80">
-        <v>0.03935327813319014</v>
+        <v>0.001229505313715037</v>
       </c>
       <c r="D80">
-        <v>-0.08476619978139098</v>
+        <v>0.051538791945574</v>
       </c>
       <c r="E80">
-        <v>0.04789257558310142</v>
+        <v>-0.02795859162540781</v>
       </c>
       <c r="F80">
-        <v>-0.01638805295525015</v>
+        <v>0.0117077084986131</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1197965477020703</v>
+        <v>-0.1216513494429392</v>
       </c>
       <c r="C81">
-        <v>0.05215833351321245</v>
+        <v>-0.02943373463822344</v>
       </c>
       <c r="D81">
-        <v>0.0112505296265863</v>
+        <v>0.0315381757206771</v>
       </c>
       <c r="E81">
-        <v>0.06677544152340974</v>
+        <v>-0.05880563534921526</v>
       </c>
       <c r="F81">
-        <v>0.0116775827073012</v>
+        <v>0.005956020000641175</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1184465717715848</v>
+        <v>-0.1619784331431659</v>
       </c>
       <c r="C82">
-        <v>0.05962171156798653</v>
+        <v>-0.02022753465927605</v>
       </c>
       <c r="D82">
-        <v>-0.008146477109639403</v>
+        <v>0.02415703817670593</v>
       </c>
       <c r="E82">
-        <v>0.0658027793482289</v>
+        <v>-0.03508221080060613</v>
       </c>
       <c r="F82">
-        <v>-0.05574092415734643</v>
+        <v>-0.04876340931679032</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08508959239547342</v>
+        <v>-0.06654488776954892</v>
       </c>
       <c r="C83">
-        <v>0.08431326145023588</v>
+        <v>-0.004514656726233809</v>
       </c>
       <c r="D83">
-        <v>-0.01199768298382539</v>
+        <v>0.04625648669637235</v>
       </c>
       <c r="E83">
-        <v>0.1015971156617471</v>
+        <v>-0.003392110076502785</v>
       </c>
       <c r="F83">
-        <v>-0.03496774645198181</v>
+        <v>0.02836861204793985</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.03687648894834673</v>
+        <v>-0.06067023685363571</v>
       </c>
       <c r="C84">
-        <v>-0.05622238616039513</v>
+        <v>-0.01202017256686588</v>
       </c>
       <c r="D84">
-        <v>-0.03162372117853064</v>
+        <v>0.05776465518000242</v>
       </c>
       <c r="E84">
-        <v>-0.1711184740264762</v>
+        <v>0.003756575187975981</v>
       </c>
       <c r="F84">
-        <v>0.1623542597221709</v>
+        <v>-0.01460693915014149</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1200290946114023</v>
+        <v>-0.1372377433693446</v>
       </c>
       <c r="C85">
-        <v>0.05621756364793913</v>
+        <v>-0.0251625420182204</v>
       </c>
       <c r="D85">
-        <v>-0.012118775541675</v>
+        <v>0.02400425600106939</v>
       </c>
       <c r="E85">
-        <v>0.03751440780431283</v>
+        <v>-0.04113960502047414</v>
       </c>
       <c r="F85">
-        <v>-0.0520323200694924</v>
+        <v>-0.03815285118570824</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08771475741756371</v>
+        <v>-0.09991264713275047</v>
       </c>
       <c r="C86">
-        <v>0.01184775435699191</v>
+        <v>0.006406586906004752</v>
       </c>
       <c r="D86">
-        <v>0.04032461266402784</v>
+        <v>0.008982681687230303</v>
       </c>
       <c r="E86">
-        <v>-0.502291091628924</v>
+        <v>-0.1280837746965484</v>
       </c>
       <c r="F86">
-        <v>0.1151080045077983</v>
+        <v>0.825950056334929</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1164735344217153</v>
+        <v>-0.1026942878196001</v>
       </c>
       <c r="C87">
-        <v>0.06639845205568065</v>
+        <v>-0.02604900735545838</v>
       </c>
       <c r="D87">
-        <v>0.01894506926437849</v>
+        <v>0.06786865380203527</v>
       </c>
       <c r="E87">
-        <v>0.01210826833404529</v>
+        <v>0.05222944295832795</v>
       </c>
       <c r="F87">
-        <v>0.09653669812884136</v>
+        <v>-0.09446612491133415</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06175410778452834</v>
+        <v>-0.06061932419775083</v>
       </c>
       <c r="C88">
-        <v>0.06341040247692245</v>
+        <v>-0.003762045966538044</v>
       </c>
       <c r="D88">
-        <v>-0.03999061348122264</v>
+        <v>0.05796513483955916</v>
       </c>
       <c r="E88">
-        <v>0.03312436292394413</v>
+        <v>-0.02381205820671284</v>
       </c>
       <c r="F88">
-        <v>0.0005133439263430676</v>
+        <v>-0.007690673551005662</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2376592801314712</v>
+        <v>-0.1319042674404783</v>
       </c>
       <c r="C89">
-        <v>-0.3662828001935871</v>
+        <v>-0.003672558268843276</v>
       </c>
       <c r="D89">
-        <v>0.04721346439335579</v>
+        <v>-0.2798531535136867</v>
       </c>
       <c r="E89">
-        <v>-0.02670194485941099</v>
+        <v>0.09068787938529249</v>
       </c>
       <c r="F89">
-        <v>-0.01092614763791367</v>
+        <v>-0.03691353655023969</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1564643713081579</v>
+        <v>-0.1404557921447836</v>
       </c>
       <c r="C90">
-        <v>-0.2605789006031267</v>
+        <v>-0.02035069096311076</v>
       </c>
       <c r="D90">
-        <v>-0.009154055773471349</v>
+        <v>-0.2770322977635836</v>
       </c>
       <c r="E90">
-        <v>0.02145519244525808</v>
+        <v>0.1049443850824275</v>
       </c>
       <c r="F90">
-        <v>0.002644194161014708</v>
+        <v>-0.04207657499788309</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07115080628120318</v>
+        <v>-0.116116665889213</v>
       </c>
       <c r="C91">
-        <v>0.05799367495473086</v>
+        <v>-0.01582873686132075</v>
       </c>
       <c r="D91">
-        <v>0.01115968233793784</v>
+        <v>0.005993066008510173</v>
       </c>
       <c r="E91">
-        <v>-0.01807480677674152</v>
+        <v>-0.05940630619914995</v>
       </c>
       <c r="F91">
-        <v>-0.005747980296100783</v>
+        <v>0.03215438514745376</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1727192277453687</v>
+        <v>-0.1443812456685631</v>
       </c>
       <c r="C92">
-        <v>-0.2941674398354526</v>
+        <v>-0.01124472282375892</v>
       </c>
       <c r="D92">
-        <v>0.02452499663547607</v>
+        <v>-0.3128967169009891</v>
       </c>
       <c r="E92">
-        <v>0.005317729086420833</v>
+        <v>0.0990849845075029</v>
       </c>
       <c r="F92">
-        <v>0.03731982194037443</v>
+        <v>-0.032527006068116</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1733519804502047</v>
+        <v>-0.1458450955251571</v>
       </c>
       <c r="C93">
-        <v>-0.3038868699479028</v>
+        <v>-0.01662214179060871</v>
       </c>
       <c r="D93">
-        <v>-0.04109767010643032</v>
+        <v>-0.2809331527869079</v>
       </c>
       <c r="E93">
-        <v>0.005559442340666135</v>
+        <v>0.06958059095051833</v>
       </c>
       <c r="F93">
-        <v>0.01284136101292679</v>
+        <v>-0.03115491790684723</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1136058317095168</v>
+        <v>-0.1331551981204805</v>
       </c>
       <c r="C94">
-        <v>0.08113447003030419</v>
+        <v>-0.02342250747560219</v>
       </c>
       <c r="D94">
-        <v>0.006853622931381528</v>
+        <v>0.05373584937249492</v>
       </c>
       <c r="E94">
-        <v>0.01398192418771957</v>
+        <v>-0.06161852378329544</v>
       </c>
       <c r="F94">
-        <v>-0.05848488885838038</v>
+        <v>-0.02332969495139151</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1504928218114258</v>
+        <v>-0.1274855736964202</v>
       </c>
       <c r="C95">
-        <v>0.05986842581908169</v>
+        <v>-0.006617225766683349</v>
       </c>
       <c r="D95">
-        <v>0.01204761696449909</v>
+        <v>0.08629937362644467</v>
       </c>
       <c r="E95">
-        <v>-0.06592519754212386</v>
+        <v>-0.03953479949132837</v>
       </c>
       <c r="F95">
-        <v>0.07285808863227476</v>
+        <v>0.008997028910022638</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09450004096058745</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.989426934969982</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01138078920034921</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06087119898696387</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05059997604936795</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1164854955162472</v>
+        <v>-0.1867790654055727</v>
       </c>
       <c r="C97">
-        <v>-0.01593429983117316</v>
+        <v>0.01316766891492264</v>
       </c>
       <c r="D97">
-        <v>0.02356504876234805</v>
+        <v>-0.006831569143842221</v>
       </c>
       <c r="E97">
-        <v>0.3648000632307752</v>
+        <v>-0.01291368283572297</v>
       </c>
       <c r="F97">
-        <v>0.008630891308704834</v>
+        <v>0.1689164391048696</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2531800877234389</v>
+        <v>-0.2075049804150969</v>
       </c>
       <c r="C98">
-        <v>0.128369197343471</v>
+        <v>-0.007427965039703426</v>
       </c>
       <c r="D98">
-        <v>0.05733021175277127</v>
+        <v>0.01608672308866586</v>
       </c>
       <c r="E98">
-        <v>-0.1355027395822434</v>
+        <v>0.08658309906128826</v>
       </c>
       <c r="F98">
-        <v>-0.2338337003837962</v>
+        <v>0.1459329952470085</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07473760366572385</v>
+        <v>-0.05812542414557804</v>
       </c>
       <c r="C99">
-        <v>0.05695366117331527</v>
+        <v>0.002850321106002875</v>
       </c>
       <c r="D99">
-        <v>0.01645993949337845</v>
+        <v>0.03025620611166631</v>
       </c>
       <c r="E99">
-        <v>-0.01489238850527049</v>
+        <v>-0.02591949455885485</v>
       </c>
       <c r="F99">
-        <v>-0.03478106488944925</v>
+        <v>-0.004983632284476477</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1231630622681098</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04740916220057662</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3234555297554221</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9072292528212494</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05751861006363153</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0432427565871497</v>
+        <v>-0.02752679786762754</v>
       </c>
       <c r="C101">
-        <v>0.02866781599450525</v>
+        <v>-0.009354284483977206</v>
       </c>
       <c r="D101">
-        <v>-0.01433896005075264</v>
+        <v>0.02510806635841759</v>
       </c>
       <c r="E101">
-        <v>0.01894000129223885</v>
+        <v>-0.008208689472644503</v>
       </c>
       <c r="F101">
-        <v>0.052559516599441</v>
+        <v>0.008161069041334445</v>
       </c>
     </row>
     <row r="102" spans="1:6">
